--- a/actual.xlsx
+++ b/actual.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tutku.ozkal\Desktop\PASHA\ORNEK-CALISMA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tutku.ozkal\Desktop\PASHA\RAPOR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E07362-CBFD-4EFF-AFDE-AEEE1317DF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1CDA1A8-2452-4756-A99B-873F208AA25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38730" yWindow="150" windowWidth="15660" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>DATE</t>
   </si>
@@ -45,13 +45,22 @@
     <t>VARIANCE %</t>
   </si>
   <si>
-    <t>BOQ</t>
+    <t>BASE</t>
+  </si>
+  <si>
+    <t>OVERALL</t>
+  </si>
+  <si>
+    <t>OVERALL2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -94,7 +103,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -114,6 +123,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -420,10 +433,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,7 +447,7 @@
     <col min="5" max="5" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,15 +463,21 @@
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>45296</v>
       </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4">
+      <c r="B2" s="9">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9">
         <v>1</v>
       </c>
       <c r="D2" s="4">
@@ -468,16 +487,22 @@
       <c r="E2" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="8">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <f t="shared" ref="A3:A32" si="1">+A2+7</f>
         <v>45303</v>
       </c>
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9">
         <v>1</v>
       </c>
       <c r="D3" s="4">
@@ -487,16 +512,22 @@
       <c r="E3" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="8">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <f t="shared" si="1"/>
         <v>45310</v>
       </c>
-      <c r="B4" s="4">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4">
+      <c r="B4" s="9">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9">
         <v>1</v>
       </c>
       <c r="D4" s="4">
@@ -506,16 +537,22 @@
       <c r="E4" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="8">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <f t="shared" si="1"/>
         <v>45317</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="9">
         <v>6</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="9">
         <f>+B5-1</f>
         <v>5</v>
       </c>
@@ -526,16 +563,22 @@
       <c r="E5" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="8">
+        <v>8</v>
+      </c>
+      <c r="G5" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <f t="shared" si="1"/>
         <v>45324</v>
       </c>
-      <c r="B6" s="4">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4">
+      <c r="B6" s="9">
+        <v>4</v>
+      </c>
+      <c r="C6" s="9">
         <f>+B6+1</f>
         <v>5</v>
       </c>
@@ -545,17 +588,24 @@
       <c r="E6" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="8">
+        <v>11</v>
+      </c>
+      <c r="G6" s="8">
+        <f t="shared" ref="G6:G29" si="2">+F6-2</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <f t="shared" si="1"/>
         <v>45331</v>
       </c>
-      <c r="B7" s="4">
-        <v>3</v>
-      </c>
-      <c r="C7" s="4">
-        <f t="shared" ref="C7" si="2">+B7-1</f>
+      <c r="B7" s="9">
+        <v>3</v>
+      </c>
+      <c r="C7" s="9">
+        <f t="shared" ref="C7" si="3">+B7-1</f>
         <v>2</v>
       </c>
       <c r="D7" s="4">
@@ -564,17 +614,24 @@
       <c r="E7" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="8">
+        <v>13</v>
+      </c>
+      <c r="G7" s="8">
+        <f>+F7-5</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <f t="shared" si="1"/>
         <v>45338</v>
       </c>
-      <c r="B8" s="4">
-        <v>4</v>
-      </c>
-      <c r="C8" s="4">
-        <f t="shared" ref="C8" si="3">+B8+1</f>
+      <c r="B8" s="9">
+        <v>4</v>
+      </c>
+      <c r="C8" s="9">
+        <f t="shared" ref="C8" si="4">+B8+1</f>
         <v>5</v>
       </c>
       <c r="D8" s="4">
@@ -583,17 +640,23 @@
       <c r="E8" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F8" s="8">
+        <v>16</v>
+      </c>
+      <c r="G8" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <f t="shared" si="1"/>
         <v>45345</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="9">
         <v>6</v>
       </c>
-      <c r="C9" s="4">
-        <f t="shared" ref="C9" si="4">+B9-1</f>
+      <c r="C9" s="9">
+        <f t="shared" ref="C9" si="5">+B9-1</f>
         <v>5</v>
       </c>
       <c r="D9" s="4">
@@ -602,17 +665,23 @@
       <c r="E9" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F9" s="8">
+        <v>21</v>
+      </c>
+      <c r="G9" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <f t="shared" si="1"/>
         <v>45352</v>
       </c>
-      <c r="B10" s="4">
-        <v>5</v>
-      </c>
-      <c r="C10" s="4">
-        <f t="shared" ref="C10" si="5">+B10+1</f>
+      <c r="B10" s="9">
+        <v>5</v>
+      </c>
+      <c r="C10" s="9">
+        <f t="shared" ref="C10" si="6">+B10+1</f>
         <v>6</v>
       </c>
       <c r="D10" s="4">
@@ -621,17 +690,23 @@
       <c r="E10" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F10" s="8">
+        <v>25</v>
+      </c>
+      <c r="G10" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <f t="shared" si="1"/>
         <v>45359</v>
       </c>
-      <c r="B11" s="4">
-        <v>4</v>
-      </c>
-      <c r="C11" s="4">
-        <f t="shared" ref="C11" si="6">+B11-1</f>
+      <c r="B11" s="9">
+        <v>4</v>
+      </c>
+      <c r="C11" s="9">
+        <f t="shared" ref="C11" si="7">+B11-1</f>
         <v>3</v>
       </c>
       <c r="D11" s="4">
@@ -640,17 +715,23 @@
       <c r="E11" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F11" s="8">
+        <v>28</v>
+      </c>
+      <c r="G11" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <f t="shared" si="1"/>
         <v>45366</v>
       </c>
-      <c r="B12" s="4">
-        <v>2</v>
-      </c>
-      <c r="C12" s="4">
-        <f t="shared" ref="C12" si="7">+B12+1</f>
+      <c r="B12" s="9">
+        <v>2</v>
+      </c>
+      <c r="C12" s="9">
+        <f t="shared" ref="C12" si="8">+B12+1</f>
         <v>3</v>
       </c>
       <c r="D12" s="4">
@@ -659,17 +740,23 @@
       <c r="E12" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="8">
+        <v>29</v>
+      </c>
+      <c r="G12" s="8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <f t="shared" si="1"/>
         <v>45373</v>
       </c>
-      <c r="B13" s="4">
-        <v>3</v>
-      </c>
-      <c r="C13" s="4">
-        <f t="shared" ref="C13" si="8">+B13-1</f>
+      <c r="B13" s="9">
+        <v>3</v>
+      </c>
+      <c r="C13" s="9">
+        <f t="shared" ref="C13" si="9">+B13-1</f>
         <v>2</v>
       </c>
       <c r="D13" s="4">
@@ -678,17 +765,23 @@
       <c r="E13" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F13" s="8">
+        <v>31</v>
+      </c>
+      <c r="G13" s="8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <f t="shared" si="1"/>
         <v>45380</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="9">
         <v>6</v>
       </c>
-      <c r="C14" s="4">
-        <f t="shared" ref="C14" si="9">+B14+1</f>
+      <c r="C14" s="9">
+        <f t="shared" ref="C14" si="10">+B14+1</f>
         <v>7</v>
       </c>
       <c r="D14" s="4">
@@ -697,17 +790,23 @@
       <c r="E14" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F14" s="8">
+        <v>36</v>
+      </c>
+      <c r="G14" s="8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <f t="shared" si="1"/>
         <v>45387</v>
       </c>
-      <c r="B15" s="4">
-        <v>4</v>
-      </c>
-      <c r="C15" s="4">
-        <f t="shared" ref="C15" si="10">+B15-1</f>
+      <c r="B15" s="9">
+        <v>4</v>
+      </c>
+      <c r="C15" s="9">
+        <f t="shared" ref="C15" si="11">+B15-1</f>
         <v>3</v>
       </c>
       <c r="D15" s="4">
@@ -716,17 +815,23 @@
       <c r="E15" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F15" s="8">
+        <v>39</v>
+      </c>
+      <c r="G15" s="8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <f t="shared" si="1"/>
         <v>45394</v>
       </c>
-      <c r="B16" s="4">
-        <v>3</v>
-      </c>
-      <c r="C16" s="4">
-        <f t="shared" ref="C16" si="11">+B16+1</f>
+      <c r="B16" s="9">
+        <v>3</v>
+      </c>
+      <c r="C16" s="9">
+        <f t="shared" ref="C16" si="12">+B16+1</f>
         <v>4</v>
       </c>
       <c r="D16" s="4">
@@ -735,17 +840,23 @@
       <c r="E16" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F16" s="8">
+        <v>42</v>
+      </c>
+      <c r="G16" s="8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <f t="shared" si="1"/>
         <v>45401</v>
       </c>
-      <c r="B17" s="4">
-        <v>2</v>
-      </c>
-      <c r="C17" s="4">
-        <f t="shared" ref="C17" si="12">+B17-1</f>
+      <c r="B17" s="9">
+        <v>2</v>
+      </c>
+      <c r="C17" s="9">
+        <f t="shared" ref="C17" si="13">+B17-1</f>
         <v>1</v>
       </c>
       <c r="D17" s="4">
@@ -754,17 +865,23 @@
       <c r="E17" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F17" s="8">
+        <v>44</v>
+      </c>
+      <c r="G17" s="8">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <f t="shared" si="1"/>
         <v>45408</v>
       </c>
-      <c r="B18" s="4">
-        <v>1</v>
-      </c>
-      <c r="C18" s="4">
-        <f t="shared" ref="C18" si="13">+B18+1</f>
+      <c r="B18" s="9">
+        <v>1</v>
+      </c>
+      <c r="C18" s="9">
+        <f t="shared" ref="C18" si="14">+B18+1</f>
         <v>2</v>
       </c>
       <c r="D18" s="4">
@@ -773,17 +890,24 @@
       <c r="E18" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F18" s="8">
+        <v>45</v>
+      </c>
+      <c r="G18" s="8">
+        <f t="shared" ref="G8:G32" si="15">+F18-5</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <f t="shared" si="1"/>
         <v>45415</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="9">
         <v>6</v>
       </c>
-      <c r="C19" s="4">
-        <f t="shared" ref="C19" si="14">+B19-1</f>
+      <c r="C19" s="9">
+        <f t="shared" ref="C19" si="16">+B19-1</f>
         <v>5</v>
       </c>
       <c r="D19" s="4">
@@ -792,17 +916,24 @@
       <c r="E19" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F19" s="8">
+        <v>49</v>
+      </c>
+      <c r="G19" s="8">
+        <f t="shared" si="15"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <f t="shared" si="1"/>
         <v>45422</v>
       </c>
-      <c r="B20" s="4">
-        <v>4</v>
-      </c>
-      <c r="C20" s="4">
-        <f t="shared" ref="C20" si="15">+B20+1</f>
+      <c r="B20" s="9">
+        <v>4</v>
+      </c>
+      <c r="C20" s="9">
+        <f t="shared" ref="C20" si="17">+B20+1</f>
         <v>5</v>
       </c>
       <c r="D20" s="4">
@@ -811,17 +942,23 @@
       <c r="E20" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F20" s="8">
+        <v>53</v>
+      </c>
+      <c r="G20" s="8">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <f t="shared" si="1"/>
         <v>45429</v>
       </c>
-      <c r="B21" s="4">
-        <v>5</v>
-      </c>
-      <c r="C21" s="4">
-        <f t="shared" ref="C21" si="16">+B21-1</f>
+      <c r="B21" s="9">
+        <v>5</v>
+      </c>
+      <c r="C21" s="9">
+        <f t="shared" ref="C21" si="18">+B21-1</f>
         <v>4</v>
       </c>
       <c r="D21" s="4">
@@ -830,17 +967,23 @@
       <c r="E21" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F21" s="8">
+        <v>57</v>
+      </c>
+      <c r="G21" s="8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <f t="shared" si="1"/>
         <v>45436</v>
       </c>
-      <c r="B22" s="4">
-        <v>3</v>
-      </c>
-      <c r="C22" s="4">
-        <f t="shared" ref="C22" si="17">+B22+1</f>
+      <c r="B22" s="9">
+        <v>3</v>
+      </c>
+      <c r="C22" s="9">
+        <f t="shared" ref="C22" si="19">+B22+1</f>
         <v>4</v>
       </c>
       <c r="D22" s="4">
@@ -849,17 +992,23 @@
       <c r="E22" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="8">
+        <v>60</v>
+      </c>
+      <c r="G22" s="8">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <f t="shared" si="1"/>
         <v>45443</v>
       </c>
-      <c r="B23" s="4">
-        <v>4</v>
-      </c>
-      <c r="C23" s="4">
-        <f t="shared" ref="C23" si="18">+B23-1</f>
+      <c r="B23" s="9">
+        <v>4</v>
+      </c>
+      <c r="C23" s="9">
+        <f t="shared" ref="C23" si="20">+B23-1</f>
         <v>3</v>
       </c>
       <c r="D23" s="4">
@@ -868,17 +1017,23 @@
       <c r="E23" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F23" s="8">
+        <v>63</v>
+      </c>
+      <c r="G23" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <f t="shared" si="1"/>
         <v>45450</v>
       </c>
-      <c r="B24" s="4">
-        <v>2</v>
-      </c>
-      <c r="C24" s="4">
-        <f t="shared" ref="C24" si="19">+B24+1</f>
+      <c r="B24" s="9">
+        <v>2</v>
+      </c>
+      <c r="C24" s="9">
+        <f t="shared" ref="C24" si="21">+B24+1</f>
         <v>3</v>
       </c>
       <c r="D24" s="4">
@@ -887,17 +1042,23 @@
       <c r="E24" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F24" s="8">
+        <v>65</v>
+      </c>
+      <c r="G24" s="8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <f t="shared" si="1"/>
         <v>45457</v>
       </c>
-      <c r="B25" s="4">
-        <v>3</v>
-      </c>
-      <c r="C25" s="4">
-        <f t="shared" ref="C25" si="20">+B25-1</f>
+      <c r="B25" s="9">
+        <v>3</v>
+      </c>
+      <c r="C25" s="9">
+        <f t="shared" ref="C25" si="22">+B25-1</f>
         <v>2</v>
       </c>
       <c r="D25" s="4">
@@ -906,17 +1067,23 @@
       <c r="E25" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F25" s="8">
+        <v>68</v>
+      </c>
+      <c r="G25" s="8">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <f t="shared" si="1"/>
         <v>45464</v>
       </c>
-      <c r="B26" s="4">
-        <v>4</v>
-      </c>
-      <c r="C26" s="4">
-        <f t="shared" ref="C26" si="21">+B26+1</f>
+      <c r="B26" s="9">
+        <v>4</v>
+      </c>
+      <c r="C26" s="9">
+        <f t="shared" ref="C26" si="23">+B26+1</f>
         <v>5</v>
       </c>
       <c r="D26" s="4">
@@ -925,18 +1092,23 @@
       <c r="E26" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F26" s="8">
+        <v>72</v>
+      </c>
+      <c r="G26" s="8">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <f t="shared" si="1"/>
         <v>45471</v>
       </c>
-      <c r="B27" s="4">
-        <v>5.8928571428571397</v>
-      </c>
-      <c r="C27" s="4">
-        <f t="shared" ref="C27" si="22">+B27-1</f>
-        <v>4.8928571428571397</v>
+      <c r="B27" s="9">
+        <v>6</v>
+      </c>
+      <c r="C27" s="9">
+        <v>5</v>
       </c>
       <c r="D27" s="4">
         <v>4</v>
@@ -944,17 +1116,23 @@
       <c r="E27" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F27" s="8">
+        <v>77</v>
+      </c>
+      <c r="G27" s="8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <f t="shared" si="1"/>
         <v>45478</v>
       </c>
-      <c r="B28" s="4">
-        <v>4</v>
-      </c>
-      <c r="C28" s="4">
-        <f t="shared" ref="C28" si="23">+B28+1</f>
+      <c r="B28" s="9">
+        <v>4</v>
+      </c>
+      <c r="C28" s="9">
+        <f t="shared" ref="C28" si="24">+B28+1</f>
         <v>5</v>
       </c>
       <c r="D28" s="4">
@@ -963,17 +1141,23 @@
       <c r="E28" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F28" s="8">
+        <v>81</v>
+      </c>
+      <c r="G28" s="8">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <f t="shared" si="1"/>
         <v>45485</v>
       </c>
-      <c r="B29" s="4">
-        <v>3</v>
-      </c>
-      <c r="C29" s="4">
-        <f t="shared" ref="C29" si="24">+B29-1</f>
+      <c r="B29" s="9">
+        <v>3</v>
+      </c>
+      <c r="C29" s="9">
+        <f t="shared" ref="C29" si="25">+B29-1</f>
         <v>2</v>
       </c>
       <c r="D29" s="4">
@@ -982,17 +1166,23 @@
       <c r="E29" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F29" s="8">
+        <v>85</v>
+      </c>
+      <c r="G29" s="8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <f t="shared" si="1"/>
         <v>45492</v>
       </c>
-      <c r="B30" s="4">
-        <v>5</v>
-      </c>
-      <c r="C30" s="4">
-        <f t="shared" ref="C30" si="25">+B30+1</f>
+      <c r="B30" s="9">
+        <v>5</v>
+      </c>
+      <c r="C30" s="9">
+        <f t="shared" ref="C30" si="26">+B30+1</f>
         <v>6</v>
       </c>
       <c r="D30" s="4">
@@ -1001,18 +1191,23 @@
       <c r="E30" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F30" s="8">
+        <v>90</v>
+      </c>
+      <c r="G30" s="8">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <f t="shared" si="1"/>
         <v>45499</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="9">
         <v>6.1785714285714297</v>
       </c>
-      <c r="C31" s="4">
-        <f t="shared" ref="C31" si="26">+B31-1</f>
-        <v>5.1785714285714297</v>
+      <c r="C31" s="9">
+        <v>5</v>
       </c>
       <c r="D31" s="4">
         <v>5</v>
@@ -1020,16 +1215,22 @@
       <c r="E31" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F31" s="8">
+        <v>96</v>
+      </c>
+      <c r="G31" s="8">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <f t="shared" si="1"/>
         <v>45506</v>
       </c>
-      <c r="B32" s="4">
-        <v>4</v>
-      </c>
-      <c r="C32" s="4">
+      <c r="B32" s="9">
+        <v>4</v>
+      </c>
+      <c r="C32" s="9">
         <f t="shared" ref="C32" si="27">+B32+1</f>
         <v>5</v>
       </c>
@@ -1038,6 +1239,12 @@
       </c>
       <c r="E32" s="7">
         <v>6</v>
+      </c>
+      <c r="F32" s="8">
+        <v>100</v>
+      </c>
+      <c r="G32" s="8">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
